--- a/data/trans_camb/P55_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P55_1-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,36</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.16022136670863</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.6589653758726333</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.475492136991686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 27,2</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; 9,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 12,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.649282861280581</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.821051404964356</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.069733436691425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,55%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,46%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.91476007740997</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.891817521933817</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.9911866640821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 44,7</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,99; 13,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,04; 17,92</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.07912584774441273</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.00915652567721055</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.03309681270170803</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>8,74</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,58</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.04414609846049382</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1300590179102667</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.06458158314197361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 21,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-24,12; -0,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,88; 7,15</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.3946504231386119</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.151143555676703</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1603944512632209</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>12,2%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-14,21%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,5%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>8.482576383795394</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.10177601251718</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.9442484135642415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 33,79</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-31,29; -0,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,87; 10,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.012995019047231</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-22.50161970378413</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.212216344786338</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,05</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21.27880568244811</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.301191141280624</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.393301340835738</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-43,95; 42,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-24,22; 21,95</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-27,6; 23,12</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.1181261377658998</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1366067960548007</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.01295432946474038</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-6,88%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,03%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,42%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.03620850070499447</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.298521154584781</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1188468146912493</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-58,57; 97,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-31,88; 40,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-37,97; 43,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.3307523483804528</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.002952811520947383</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1050313584982387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>6,53</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-4,69</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.197286488992913</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.9744834089183918</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.786422771560892</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 17,63</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; 2,48</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 6,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-44.47871894813198</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-23.08666469709634</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-27.79414174504462</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-6,47%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>41.79221112270907</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>22.76188498206267</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>22.17040725295731</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 26,84</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-16,5; 3,61</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 9,4</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.06963396329800953</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.01439613950177474</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.02790311824067965</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5980190027002443</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3048096329930126</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3750709242268854</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.8809629279589669</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.4174758182515559</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.4089287763968986</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>5.828317629679713</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-4.199339813439085</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.6405573835000733</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.652187457624811</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-11.59979732840758</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.637815104788121</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>16.71644195069828</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.815220705782266</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.15781547174471</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.07941064242978552</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.05806552230705071</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.008793477416356337</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.04678181852729715</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1565981539027211</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.07358287162699439</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2501787611571418</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.0382053118184864</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.08878869987101645</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
